--- a/icaffe_Export Sea Masters.Party Test Cases.xlsx
+++ b/icaffe_Export Sea Masters.Party Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="686">
   <si>
     <t>Pass</t>
   </si>
@@ -1989,9 +1989,6 @@
 Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step 4.click on Billing checkbox</t>
   </si>
   <si>
-    <t>User should be clicked on Billing checkbox properly</t>
-  </si>
-  <si>
     <t>M_P_Consignee_018</t>
   </si>
   <si>
@@ -2074,6 +2071,282 @@
   </si>
   <si>
     <t>MBA-3</t>
+  </si>
+  <si>
+    <t>User verify City textbox accept valid City Name</t>
+  </si>
+  <si>
+    <t>City Name textbox should be accept Alphabets only like city name -Delhi</t>
+  </si>
+  <si>
+    <t>City Name-Delhi123</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter city Name</t>
+  </si>
+  <si>
+    <t>City Name textbox is take Numeric and special character value in textbox</t>
+  </si>
+  <si>
+    <t>MBA-21</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_022</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_023</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter State Name</t>
+  </si>
+  <si>
+    <t>User verify State Textbox accept valid State Name and Reflect green as AutoSuggest field</t>
+  </si>
+  <si>
+    <t>When user enter State Name it should be AutoSuggest State Name Below textbox and it should be Reflect green</t>
+  </si>
+  <si>
+    <t>State Name textbox is not AutoSuggest State Name and not Reflect green and   also it takes Numeric and Special Character, Actual is not same as expected</t>
+  </si>
+  <si>
+    <t>MBA-22</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_024</t>
+  </si>
+  <si>
+    <t>User verify Countary Textbox accept valid Countary Name</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Countary Name</t>
+  </si>
+  <si>
+    <t>State Name- Mumbai12;;;</t>
+  </si>
+  <si>
+    <t>Countary Name-India</t>
+  </si>
+  <si>
+    <t>User enter countary name it should be autosuggest countary name as India</t>
+  </si>
+  <si>
+    <t>It suggest the Countary Name below textbox</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_025</t>
+  </si>
+  <si>
+    <t>User verify Pincode textbox accept valid Pincode</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Pincode Number</t>
+  </si>
+  <si>
+    <t>Pincode Number- aaasas</t>
+  </si>
+  <si>
+    <t>It takes Alphabets and also Special character, Actual is not as expected</t>
+  </si>
+  <si>
+    <t>Pincode textbox should be take only numeric value and it accept only 6 digits</t>
+  </si>
+  <si>
+    <t>MBA-23</t>
+  </si>
+  <si>
+    <t>User verify Phone Number Textbox accept valid Phone Number</t>
+  </si>
+  <si>
+    <t>Phone Number- 022, 400093</t>
+  </si>
+  <si>
+    <t>User should be enter valid Phone Number in textbox</t>
+  </si>
+  <si>
+    <t>It takes valid Phone Number , Actual is same as expected</t>
+  </si>
+  <si>
+    <t>User verify Mobile Number Textbox accept valid Mobile Number</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Mobile Number-9123456789</t>
+  </si>
+  <si>
+    <t>User should be enter valid Mobile number in textbox</t>
+  </si>
+  <si>
+    <t>It takes valid Mobile Number ,Actual as expected</t>
+  </si>
+  <si>
+    <t>User verify Fax textbox accept valid Fax Number</t>
+  </si>
+  <si>
+    <t>Fax Number- 022-22633075</t>
+  </si>
+  <si>
+    <t>User should be enter valid Fax Number in textbox</t>
+  </si>
+  <si>
+    <t>It takes valid Fax number, Actual as expected</t>
+  </si>
+  <si>
+    <t>User verify Email1 and Email2 Textbox accept valid Email in textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Email1 and Email2 </t>
+  </si>
+  <si>
+    <t>Email1-test@gmail.com  Email2-test@gmail.com</t>
+  </si>
+  <si>
+    <t>User should be enter valid email in textboxes</t>
+  </si>
+  <si>
+    <t>It takes valid Email,Actula as expected</t>
+  </si>
+  <si>
+    <t>Verify User enter invalid email in Email1 and Email2 textbox</t>
+  </si>
+  <si>
+    <t>Email1-testgmail.com  Email2-testgmail.com</t>
+  </si>
+  <si>
+    <t>User should be get pop-up message Please enter valid Email</t>
+  </si>
+  <si>
+    <t>user get pop-up message , Actual same as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be clicked on Billing checkbox only in Consignee/Supplier </t>
+  </si>
+  <si>
+    <t>User verify Website textbox accept valid Website</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Website</t>
+  </si>
+  <si>
+    <t>Website- https://hansinfomatic.com</t>
+  </si>
+  <si>
+    <t>User enter valid website it should be take valid website url</t>
+  </si>
+  <si>
+    <t>Accepted valid website ,Actual as expected</t>
+  </si>
+  <si>
+    <t>Verify user enter invalid website</t>
+  </si>
+  <si>
+    <t>Website- http//hansinfomatic.com</t>
+  </si>
+  <si>
+    <t>it get pop-up message, Actual as expected</t>
+  </si>
+  <si>
+    <t>User verify Branch Name textbox accept valid Branch Name</t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Enter Branch Name</t>
+  </si>
+  <si>
+    <t>Branch Name- Demo</t>
+  </si>
+  <si>
+    <t>User should be get pop-up message Invalid URL!!</t>
+  </si>
+  <si>
+    <t>User should be enter valid Branch name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch name is accept valid Branch Name, Actual is same as expected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User verify Add icon button is visible and enabled </t>
+  </si>
+  <si>
+    <t>Steps to reproduce
+Step 1.Navigate icaffe login page
+Step 2.After Login Navigate Login Branch Division
+Step 3.After select Exporter Sea Branch Navigate Masters&gt;Party&gt;Consignee&gt;Consignee/supplier/Buyer/Notify Step &gt; Click on Add icon button</t>
+  </si>
+  <si>
+    <t>User fill all Consignee and supplier details and user should be click on add icon all the supplier details should be save below table</t>
+  </si>
+  <si>
+    <t>Add icon button visible and enabled ,Actual same as expected</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_026</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_027</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_028</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_029</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_030</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_031</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_032</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_033</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_034</t>
+  </si>
+  <si>
+    <t>M_P_Consignee_035</t>
+  </si>
+  <si>
+    <t>User verify save button is visible and enable</t>
+  </si>
+  <si>
+    <t>User fill all Consignee and supplier details and user should be click on save button all the supplier details should be save in table</t>
+  </si>
+  <si>
+    <t>Save button visible and enabled ,Actual same as expected</t>
   </si>
 </sst>
 </file>
@@ -2841,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,16 +3175,16 @@
         <v>475</v>
       </c>
       <c r="C6" s="14">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" s="14">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14">
         <v>18</v>
       </c>
       <c r="F6" s="14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>144</v>
@@ -2925,22 +3198,22 @@
         <v>521</v>
       </c>
       <c r="C7" s="14">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D7" s="14">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>144</v>
       </c>
       <c r="H7" s="16">
-        <v>45883</v>
+        <v>45887</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3626,7 +3899,7 @@
         <v>84</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>25</v>
@@ -3673,7 +3946,7 @@
         <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>25</v>
@@ -3697,7 +3970,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>57</v>
@@ -3764,7 +4037,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>25</v>
@@ -3811,7 +4084,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>25</v>
@@ -3858,7 +4131,7 @@
         <v>103</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>25</v>
@@ -5982,7 +6255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -6479,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A35" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7864,7 +8137,7 @@
       <c r="F35" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>464</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -7908,10 +8181,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8582,7 +8855,7 @@
         <v>358</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
@@ -8617,7 +8890,7 @@
         <v>564</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>25</v>
@@ -8729,7 +9002,7 @@
         <v>255</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
@@ -8749,7 +9022,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -8761,19 +9034,19 @@
         <v>358</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>255</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
@@ -8793,7 +9066,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -8805,19 +9078,19 @@
         <v>358</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>587</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
@@ -8837,7 +9110,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -8849,19 +9122,19 @@
         <v>358</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
@@ -8881,10 +9154,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>25</v>
@@ -8896,20 +9169,20 @@
         <v>358</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>56</v>
@@ -8919,14 +9192,642 @@
       </c>
       <c r="O26" s="11">
         <v>45883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O27" s="11">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O28" s="11">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O29" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O30" s="11">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="21" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O31" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="21" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O32" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O33" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O34" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O35" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O36" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O37" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>33</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O38" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>34</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O39" s="23">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>35</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O40" s="23">
+        <v>45887</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" display="https://hanssupport.atlassian.net/browse/MBA-19"/>
     <hyperlink ref="C26" r:id="rId2" display="https://hanssupport.atlassian.net/browse/MBA-20"/>
+    <hyperlink ref="C27" r:id="rId3" display="https://hanssupport.atlassian.net/browse/MBA-21"/>
+    <hyperlink ref="C28" r:id="rId4" display="https://hanssupport.atlassian.net/browse/MBA-22"/>
+    <hyperlink ref="C30" r:id="rId5" display="https://hanssupport.atlassian.net/browse/MBA-23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>